--- a/config/xlsx/Common/Localization_多语言.xlsx
+++ b/config/xlsx/Common/Localization_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12270"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Font_Chinese</t>
+  </si>
+  <si>
+    <t>Update Failed</t>
+  </si>
+  <si>
+    <t>更新失败</t>
   </si>
   <si>
     <t>表头</t>
@@ -1719,15 +1725,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.125" style="5" customWidth="1"/>
     <col min="2" max="3" width="24.25" style="5" customWidth="1"/>
@@ -1855,6 +1861,20 @@
       </c>
       <c r="E8" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>10001006</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1881,60 +1901,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -1942,7 +1962,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1950,31 +1970,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1982,56 +2002,56 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2039,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
